--- a/Databases/Templates GoalgetterTie.xlsx
+++ b/Databases/Templates GoalgetterTie.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Syncmap\Promotie\PASS\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzo/Projects/PASS/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2453466-3CBF-4E44-9FB6-B00C765C443F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23860" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1196,9 +1197,6 @@
     <t>Scheidsrechter &lt;referee&gt; was genoodzaakt &lt;number of yellow cards&gt; gele kaarten te geven, aan &lt;yellow card players&gt;.</t>
   </si>
   <si>
-    <t>Scheidsrechter Ed Janssen was genoodzaakt één gele kaart te geven, aan &lt;yellow card player&gt;.</t>
-  </si>
-  <si>
     <t>Alleen &lt;yellow card player&gt; liep een gele kaart op.</t>
   </si>
   <si>
@@ -1254,12 +1252,15 @@
   </si>
   <si>
     <t>&lt;twice yellow players&gt; kregen twee keer geel en mochten eerder gaan douchen.</t>
+  </si>
+  <si>
+    <t>Scheidsrechter &lt;referee&gt; was genoodzaakt één gele kaart te geven, aan &lt;yellow card player&gt;.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,7 +1313,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1647,20 +1648,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="DA2" sqref="DA2"/>
+    <sheetView tabSelected="1" topLeftCell="CW2" workbookViewId="0">
+      <selection activeCell="CW4" sqref="CW4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="108" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1680,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -1698,28 +1699,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>10</v>
@@ -1749,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>19</v>
@@ -1770,7 +1771,7 @@
         <v>24</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL1" s="3" t="s">
         <v>25</v>
@@ -1986,7 +1987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -2026,10 +2027,10 @@
         <v>103</v>
       </c>
       <c r="Z2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB2" t="s">
         <v>104</v>
@@ -2075,7 +2076,7 @@
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AZ2" t="s">
         <v>115</v>
@@ -2174,7 +2175,7 @@
       </c>
       <c r="CZ2" s="3"/>
       <c r="DA2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="DB2" t="s">
         <v>133</v>
@@ -2183,7 +2184,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>144</v>
       </c>
       <c r="AJ3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
@@ -2311,7 +2312,7 @@
         <v>158</v>
       </c>
       <c r="CW3" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="CX3" t="s">
         <v>387</v>
@@ -2324,7 +2325,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>181</v>
       </c>
       <c r="CW4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CX4" t="s">
         <v>388</v>
@@ -2457,7 +2458,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>220</v>
       </c>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W7" t="s">
         <v>221</v>
@@ -2801,7 +2802,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>245</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>256</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>303</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>320</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>326</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="CZ21" s="3"/>
       <c r="DA21" s="3"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -4156,7 +4157,7 @@
       <c r="CZ22" s="3"/>
       <c r="DA22" s="3"/>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>339</v>
       </c>
@@ -4239,7 +4240,7 @@
       <c r="CZ23" s="3"/>
       <c r="DA23" s="3"/>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -4316,7 +4317,7 @@
       <c r="CZ24" s="3"/>
       <c r="DA24" s="3"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -4393,7 +4394,7 @@
       <c r="CZ25" s="3"/>
       <c r="DA25" s="3"/>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>347</v>
       </c>
@@ -4469,7 +4470,7 @@
       <c r="CZ26" s="3"/>
       <c r="DA26" s="3"/>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -4546,7 +4547,7 @@
       <c r="CZ27" s="3"/>
       <c r="DA27" s="3"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>351</v>
       </c>
@@ -4620,7 +4621,7 @@
       <c r="CZ28" s="3"/>
       <c r="DA28" s="3"/>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -4694,7 +4695,7 @@
       <c r="CZ29" s="3"/>
       <c r="DA29" s="3"/>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -4768,7 +4769,7 @@
       <c r="CZ30" s="3"/>
       <c r="DA30" s="3"/>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>354</v>
       </c>
@@ -4842,7 +4843,7 @@
       <c r="CZ31" s="3"/>
       <c r="DA31" s="3"/>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -4916,7 +4917,7 @@
       <c r="CZ32" s="3"/>
       <c r="DA32" s="3"/>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>356</v>
       </c>
@@ -4990,7 +4991,7 @@
       <c r="CZ33" s="3"/>
       <c r="DA33" s="3"/>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -5064,7 +5065,7 @@
       <c r="CZ34" s="3"/>
       <c r="DA34" s="3"/>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -5138,7 +5139,7 @@
       <c r="CZ35" s="3"/>
       <c r="DA35" s="3"/>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -5212,7 +5213,7 @@
       <c r="CZ36" s="3"/>
       <c r="DA36" s="3"/>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>360</v>
       </c>
@@ -5286,7 +5287,7 @@
       <c r="CZ37" s="3"/>
       <c r="DA37" s="3"/>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>361</v>
       </c>
@@ -5360,7 +5361,7 @@
       <c r="CZ38" s="3"/>
       <c r="DA38" s="3"/>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -5434,7 +5435,7 @@
       <c r="CZ39" s="3"/>
       <c r="DA39" s="3"/>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>363</v>
       </c>
@@ -5508,7 +5509,7 @@
       <c r="CZ40" s="3"/>
       <c r="DA40" s="3"/>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>364</v>
       </c>
@@ -5582,7 +5583,7 @@
       <c r="CZ41" s="3"/>
       <c r="DA41" s="3"/>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>365</v>
       </c>
@@ -5656,7 +5657,7 @@
       <c r="CZ42" s="3"/>
       <c r="DA42" s="3"/>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -5730,7 +5731,7 @@
       <c r="CZ43" s="3"/>
       <c r="DA43" s="3"/>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>367</v>
       </c>
@@ -5804,7 +5805,7 @@
       <c r="CZ44" s="3"/>
       <c r="DA44" s="3"/>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -5878,7 +5879,7 @@
       <c r="CZ45" s="3"/>
       <c r="DA45" s="3"/>
     </row>
-    <row r="46" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -5952,7 +5953,7 @@
       <c r="CZ46" s="3"/>
       <c r="DA46" s="3"/>
     </row>
-    <row r="47" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>370</v>
       </c>
@@ -6026,7 +6027,7 @@
       <c r="CZ47" s="3"/>
       <c r="DA47" s="3"/>
     </row>
-    <row r="48" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -6100,7 +6101,7 @@
       <c r="CZ48" s="3"/>
       <c r="DA48" s="3"/>
     </row>
-    <row r="49" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -6174,7 +6175,7 @@
       <c r="CZ49" s="3"/>
       <c r="DA49" s="3"/>
     </row>
-    <row r="50" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>373</v>
       </c>
@@ -6248,7 +6249,7 @@
       <c r="CZ50" s="3"/>
       <c r="DA50" s="3"/>
     </row>
-    <row r="51" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>374</v>
       </c>
@@ -6322,7 +6323,7 @@
       <c r="CZ51" s="3"/>
       <c r="DA51" s="3"/>
     </row>
-    <row r="52" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -6396,7 +6397,7 @@
       <c r="CZ52" s="3"/>
       <c r="DA52" s="3"/>
     </row>
-    <row r="53" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>376</v>
       </c>
@@ -6470,7 +6471,7 @@
       <c r="CZ53" s="3"/>
       <c r="DA53" s="3"/>
     </row>
-    <row r="54" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>377</v>
       </c>
@@ -6544,7 +6545,7 @@
       <c r="CZ54" s="3"/>
       <c r="DA54" s="3"/>
     </row>
-    <row r="55" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>378</v>
       </c>
@@ -6624,15 +6625,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -6642,15 +6643,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
